--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\DoNotDelete\NewFiles\DAILY_UPDATES\JUNE2025\11062025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\DoNotDelete\NewFiles\DAILY_UPDATES\JUNE2025\25062025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051391EA-833B-4B12-AE85-7ADEDC323FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196D127-2165-4F6E-A10A-A70E160920E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="T2">
-        <v>225761</v>
+        <v>502242</v>
       </c>
     </row>
   </sheetData>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\DoNotDelete\NewFiles\DAILY_UPDATES\JUNE2025\25062025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\DoNotDelete\NewFiles\DAILY_UPDATES\JUNE2025\26062025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196D127-2165-4F6E-A10A-A70E160920E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D2081-215A-4F5D-BE6E-B78718EFFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="T2">
-        <v>502242</v>
+        <v>516522</v>
       </c>
     </row>
   </sheetData>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\DoNotDelete\NewFiles\DAILY_UPDATES\JUNE2025\26062025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jack Wilson\DoNotDelete\NewFiles\DAILY_UPDATES\JULY2025\11072025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1D2081-215A-4F5D-BE6E-B78718EFFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A92A5-EDEE-4A75-A56C-EC930DF5A772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="T2">
-        <v>516522</v>
+        <v>245296</v>
       </c>
     </row>
   </sheetData>
